--- a/THRef/Table 1.xlsx
+++ b/THRef/Table 1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="24">
   <si>
     <t>T1</t>
   </si>
@@ -120,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -165,12 +165,24 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="true" applyBorder="true"/>
@@ -204,6 +216,18 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -546,76 +570,76 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="31" t="s">
+      <c r="X1" s="43" t="s">
         <v>23</v>
       </c>
     </row>
